--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
@@ -525,22 +525,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H2">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005004438902222221</v>
+        <v>0.003815090656</v>
       </c>
       <c r="R2">
-        <v>0.04503995011999999</v>
+        <v>0.034335815904</v>
       </c>
       <c r="S2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="T2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H3">
         <v>0.178663</v>
       </c>
       <c r="I3">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J3">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0004222799262222223</v>
+        <v>0.0004222799262222221</v>
       </c>
       <c r="R3">
         <v>0.003800519336</v>
       </c>
       <c r="S3">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="T3">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
     </row>
   </sheetData>
